--- a/bioSample/bioSample_1045.xlsx
+++ b/bioSample/bioSample_1045.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/old_database/crypto/bioSample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849DDBB3-C187-7D4C-BC16-82B20C748148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B4290-D302-6344-9185-B82068C8D018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="23">
   <si>
     <t>harvestDate</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>90minuteInduction</t>
+  </si>
+  <si>
+    <t>TDY1480</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D19"/>
+      <selection activeCell="F17" sqref="F17:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -720,6 +723,9 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
@@ -746,6 +752,9 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
@@ -772,6 +781,9 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
@@ -972,6 +984,9 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
@@ -998,6 +1013,9 @@
       <c r="D18" t="s">
         <v>21</v>
       </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
       <c r="G18" t="s">
         <v>15</v>
       </c>
@@ -1023,6 +1041,9 @@
       </c>
       <c r="D19" t="s">
         <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>

--- a/bioSample/bioSample_1045.xlsx
+++ b/bioSample/bioSample_1045.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_1045.xlsx
+++ b/bioSample/bioSample_1045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F08C794-4243-0948-9322-72FD3A47E3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B53773-E323-E240-821B-05451D285FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,13 +461,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1022" width="8.83203125" customWidth="1"/>
+    <col min="1" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="1022" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">

--- a/bioSample/bioSample_1045.xlsx
+++ b/bioSample/bioSample_1045.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">CNAG_05420_over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAT</t>
   </si>
   <si>
     <t xml:space="preserve">30C</t>
@@ -97,6 +100,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -181,7 +185,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -437,6 +441,9 @@
       <c r="I8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J8" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -463,6 +470,9 @@
       <c r="I9" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J9" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -489,6 +499,9 @@
       <c r="I10" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J10" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -510,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -539,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -568,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -597,7 +610,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -629,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -661,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -690,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -698,6 +711,9 @@
       <c r="I17" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J17" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -716,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -724,6 +740,9 @@
       <c r="I18" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J18" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -742,13 +761,16 @@
         <v>19</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
